--- a/ig/main/StructureDefinition-fr-core-patient.xlsx
+++ b/ig/main/StructureDefinition-fr-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-23</t>
+    <t>2023-09-19T07:10:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -9311,10 +9311,10 @@
       </c>
       <c r="Q55" s="2"/>
       <c r="R55" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S55" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="S55" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="T55" t="s" s="2">
         <v>38</v>
@@ -9430,10 +9430,10 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S56" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="S56" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="T56" t="s" s="2">
         <v>38</v>
@@ -9547,10 +9547,10 @@
       </c>
       <c r="Q57" s="2"/>
       <c r="R57" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S57" t="s" s="2">
         <v>347</v>
-      </c>
-      <c r="S57" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="T57" t="s" s="2">
         <v>348</v>
@@ -10368,10 +10368,10 @@
       </c>
       <c r="Q64" s="2"/>
       <c r="R64" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S64" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="S64" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="T64" t="s" s="2">
         <v>38</v>
@@ -10487,10 +10487,10 @@
       </c>
       <c r="Q65" s="2"/>
       <c r="R65" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S65" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="T65" t="s" s="2">
         <v>38</v>
@@ -10604,10 +10604,10 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S66" t="s" s="2">
         <v>389</v>
-      </c>
-      <c r="S66" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="T66" t="s" s="2">
         <v>348</v>
@@ -11425,10 +11425,10 @@
       </c>
       <c r="Q73" s="2"/>
       <c r="R73" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S73" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="S73" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="T73" t="s" s="2">
         <v>38</v>
@@ -11544,10 +11544,10 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S74" t="s" s="2">
         <v>402</v>
-      </c>
-      <c r="S74" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="T74" t="s" s="2">
         <v>38</v>
@@ -11661,10 +11661,10 @@
       </c>
       <c r="Q75" s="2"/>
       <c r="R75" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S75" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="S75" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="T75" t="s" s="2">
         <v>348</v>
@@ -12482,10 +12482,10 @@
       </c>
       <c r="Q82" s="2"/>
       <c r="R82" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S82" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="S82" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="T82" t="s" s="2">
         <v>38</v>
@@ -12601,10 +12601,10 @@
       </c>
       <c r="Q83" s="2"/>
       <c r="R83" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S83" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="S83" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="T83" t="s" s="2">
         <v>38</v>
@@ -12718,10 +12718,10 @@
       </c>
       <c r="Q84" s="2"/>
       <c r="R84" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S84" t="s" s="2">
         <v>419</v>
-      </c>
-      <c r="S84" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="T84" t="s" s="2">
         <v>348</v>
@@ -13539,10 +13539,10 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S91" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="S91" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="T91" t="s" s="2">
         <v>38</v>
@@ -13658,10 +13658,10 @@
       </c>
       <c r="Q92" s="2"/>
       <c r="R92" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S92" t="s" s="2">
         <v>431</v>
-      </c>
-      <c r="S92" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="T92" t="s" s="2">
         <v>38</v>
@@ -14596,10 +14596,10 @@
       </c>
       <c r="Q100" s="2"/>
       <c r="R100" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S100" t="s" s="2">
         <v>400</v>
-      </c>
-      <c r="S100" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="T100" t="s" s="2">
         <v>38</v>
@@ -14715,10 +14715,10 @@
       </c>
       <c r="Q101" s="2"/>
       <c r="R101" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S101" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="S101" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="T101" t="s" s="2">
         <v>38</v>
@@ -15893,10 +15893,10 @@
       </c>
       <c r="Q111" s="2"/>
       <c r="R111" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S111" t="s" s="2">
         <v>429</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="T111" t="s" s="2">
         <v>38</v>
@@ -17071,10 +17071,10 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S121" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="S121" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="T121" t="s" s="2">
         <v>38</v>
@@ -20369,10 +20369,10 @@
       </c>
       <c r="Q149" s="2"/>
       <c r="R149" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S149" t="s" s="2">
         <v>676</v>
-      </c>
-      <c r="S149" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="T149" t="s" s="2">
         <v>38</v>
@@ -21783,10 +21783,10 @@
       </c>
       <c r="Q161" s="2"/>
       <c r="R161" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="S161" t="s" s="2">
         <v>732</v>
-      </c>
-      <c r="S161" t="s" s="2">
-        <v>38</v>
       </c>
       <c r="T161" t="s" s="2">
         <v>38</v>

--- a/ig/main/StructureDefinition-fr-core-patient.xlsx
+++ b/ig/main/StructureDefinition-fr-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-19T07:10:34+00:00</t>
+    <t>2023-09-19T08:58:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-fr-core-patient.xlsx
+++ b/ig/main/StructureDefinition-fr-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-19T08:58:18+00:00</t>
+    <t>2023-09-19T09:27:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-fr-core-patient.xlsx
+++ b/ig/main/StructureDefinition-fr-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-19T09:27:01+00:00</t>
+    <t>2023-09-19T09:28:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-fr-core-patient.xlsx
+++ b/ig/main/StructureDefinition-fr-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-19T09:28:32+00:00</t>
+    <t>2023-09-19T09:52:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-fr-core-patient.xlsx
+++ b/ig/main/StructureDefinition-fr-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-19T09:52:24+00:00</t>
+    <t>2023-10-09T09:16:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ig/main/StructureDefinition-fr-core-patient.xlsx
+++ b/ig/main/StructureDefinition-fr-core-patient.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-09T09:16:22+00:00</t>
+    <t>2023-10-16T08:03:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
